--- a/static/Массовое добавление(под ключ).xlsx
+++ b/static/Массовое добавление(под ключ).xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/semamakarovyh/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A5803C-BF15-5448-9BF4-F220C8E8AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Заявка" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -90,6 +84,18 @@
     </r>
   </si>
   <si>
+    <t>Качели</t>
+  </si>
+  <si>
+    <t>Качели для дачи</t>
+  </si>
+  <si>
+    <t>Качели для ребёнка</t>
+  </si>
+  <si>
+    <t>Качели, Качели для ребёнка, Качели для дачи</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -108,7 +114,7 @@
         <rFont val="Montserrat Regular"/>
         <charset val="204"/>
       </rPr>
-      <t>Телефон для связи +7 (499) 113-39-37, Телегграм:</t>
+      <t>Телефон для связи +7 (995) 921-12-10, Телегграм:</t>
     </r>
     <r>
       <rPr>
@@ -140,23 +146,11 @@
       <t>,</t>
     </r>
   </si>
-  <si>
-    <t>Качели</t>
-  </si>
-  <si>
-    <t>Качели для дачи</t>
-  </si>
-  <si>
-    <t>Качели для ребёнка</t>
-  </si>
-  <si>
-    <t>Качели, Качели для ребёнка, Качели для дачи</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -320,12 +314,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -344,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -567,7 +561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF6FA8DC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -575,41 +569,41 @@
   <dimension ref="A1:I1043223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="72.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="113" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="41" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -620,20 +614,20 @@
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="11">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="11.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -644,14 +638,14 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>70433371</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>1.23712371283912E+16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -661,14 +655,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>70433371</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>1.23712371283912E+16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -678,14 +672,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>70433371</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>1.23712371283912E+16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -695,14 +689,14 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>70433371</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>1.23712371283912E+16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -711,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1043223" ht="16" customHeight="1"/>
+    <row r="1043223" ht="15.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -719,8 +713,8 @@
     <mergeCell ref="E2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1" display="Лучший сервис по комлексной работе с маркетплейсами!_x000a_Телефон для связи +7 (499) 113-39-37, Телегграм: https://t.me/RATE_THISbot,"/>
+    <hyperlink ref="A1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
